--- a/db_tools/rank13demandcoefficients.xlsx
+++ b/db_tools/rank13demandcoefficients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17820" windowHeight="10860" activeTab="1"/>
+    <workbookView windowWidth="17760" windowHeight="11940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>安全保卫部</t>
   </si>
@@ -441,7 +441,7 @@
     <t>王辰</t>
   </si>
   <si>
-    <t>携款员 安全保卫 守库员 护卫队 护卫 护卫岗</t>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                            </t>
   </si>
   <si>
     <t>高中（中专）及以下</t>
@@ -450,46 +450,51 @@
     <t>无</t>
   </si>
   <si>
+    <t>员 员（系数固定） 员（内退） 员（不在岗）</t>
+  </si>
+  <si>
     <t>专科</t>
   </si>
   <si>
     <t>初级</t>
   </si>
   <si>
-    <t>客户经理 信贷综合 信贷综合员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">驾驶员 综合柜员 档案管理员 专职授权 库管 会计综合 库管员 加钞员 后勤保障 综合柜员兼库管员 综合柜员兼库管 会计综合员 钞币清分员 </t>
+    <t>客户经理（内退） 客户经理 信贷综合 客户经理（待岗）</t>
+  </si>
+  <si>
+    <t>携款员 驾驶员（内退） 驾驶员 综合柜员（内退） 综合柜员 档案管理员 库管员 后勤保障 会计综合 专职授权员 加钞员 病假 护卫岗 理财经理 综合柜员（不在岗）</t>
   </si>
   <si>
     <t>授信经理 用信经理</t>
   </si>
   <si>
-    <t>员（二级助理） 授信经理（二级助理）</t>
-  </si>
-  <si>
-    <t>二级支行会计主管 分理处会计主管</t>
-  </si>
-  <si>
-    <t>督导 总经理助理（一级助理） 员（一级助理） 经理助理（一级助理） 支行副行长 一级支行会计主管 分理处主任</t>
+    <t>员（二级助理） 分理处会计主管</t>
+  </si>
+  <si>
+    <t>一级支行会计主管 一级支行副行长（内勤） 二级支行副行长（内勤） 二级支行会计主管 二级支行副行长（外勤） 二经支行副行长（内勤） 分理处会计主管</t>
+  </si>
+  <si>
+    <t>稽核员 总行一级助理 会计督导 一级支行副行长（外勤） 一级支行副行长兼富民分理处主任 一级支行副行长（内勤） 一级支行副行长兼望海分理处主任 一级支行副行长 客户经理 一级支行副行长兼龙宝分理处主任 一级支行副行长兼长青分理处主任 二级支行副行长（内勤） 分理处主任 一级支行副行长兼科技园分理处主任 二级支行副行长兼杏树岗分理处主任</t>
   </si>
   <si>
     <t>中级</t>
   </si>
   <si>
-    <t>远程监控中心主任 合规管理中心主任 会计督导中心主任 预算管理中心主任 资产负债管理中心主任 财富中心主任 小微中心主任 王辰 培训中心主任 产品研发中心主任 扶贫中心主任 事后监督中心主任 中心主任 远程授权中心主任 档案管理中心 景城支行筹建小组 学伟支行筹建小组 支行行长</t>
-  </si>
-  <si>
-    <t>副主任 副总经理兼投行业务中心主任 副总经理 副总经理兼内控中心主任 副总经理(主持工作) 副总经理兼绩效考核中心主任 副总经理兼用信审批中心主任 副总经理兼中心主任 退长还员</t>
-  </si>
-  <si>
-    <t>总经理 正职级员 经营层办公室主任</t>
+    <t>预算管理中心主任 资产负债管理中心主任 培训中心主任 学伟支行筹建小组 贷后管理中心主任 产品研发中心主任 扶贫办公室主任 财富中心主任 中心主任待遇 事后监督中心主任 远程授权中心主任 会计督导中心主任 远程监控中心主任 合规管理中心主任 退长还员 客户经理</t>
+  </si>
+  <si>
+    <t>副主任 副总经理兼
+内控中心主任 副总经理(主持工作) 副总经理兼绩效考核中心主任 副总经理 副总经理兼用信审批
+中心主任 副总经理兼中心主任 副总经理兼投行业务中心主任 一级支行行长 退长还员</t>
+  </si>
+  <si>
+    <t>主任 总经理 正职级员 内退</t>
   </si>
   <si>
     <t>本科</t>
   </si>
   <si>
-    <t>董事会秘书兼董事会办公室主任 财务总监 风险总监兼风险部总经理 总审计师兼总经理 工会主席兼监事会办公室主任 行长助理兼总经理</t>
+    <t>董事会秘书 内退 财务总监 总审计师 风险总监兼风险部总经理 董事会秘书兼董事会办公室主任 工会主席兼监事会办公室主任 总审计师兼总经理 行长助理兼总经理</t>
   </si>
   <si>
     <t>高级</t>
@@ -503,10 +508,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -531,31 +536,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,7 +572,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -597,31 +615,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,10 +639,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,7 +665,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,7 +673,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,49 +688,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,108 +850,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -852,18 +869,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,20 +917,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,17 +947,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,7 +969,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,17 +1014,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,16 +1034,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,115 +1052,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,7 +1842,7 @@
   <sheetPr/>
   <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -2248,7 +2253,7 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -2295,27 +2300,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="2" max="2" width="44.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" ht="26" customHeight="1" spans="1:11">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2">
         <v>1</v>
@@ -2345,24 +2350,24 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:11">
+    <row r="2" ht="27" customHeight="1" spans="1:11">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3">
         <v>1.3</v>
@@ -2380,24 +2385,24 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:11">
+    <row r="3" ht="34" customHeight="1" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3">
         <v>1.3</v>
@@ -2415,24 +2420,24 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" ht="36.75" spans="1:11">
+    <row r="4" ht="74" customHeight="1" spans="1:11">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G4" s="3">
         <v>1.3</v>
@@ -2461,13 +2466,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G5" s="3">
         <v>1.8</v>
@@ -2490,19 +2495,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G6" s="3">
         <v>1.8</v>
@@ -2520,24 +2525,24 @@
         <v>2.3</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:11">
+    <row r="7" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G7" s="3">
         <v>2.1</v>
@@ -2555,24 +2560,24 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:11">
+    <row r="8" ht="48.75" spans="1:11">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3">
         <v>2.15</v>
@@ -2590,24 +2595,24 @@
         <v>2.55</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:11">
+    <row r="9" ht="39" customHeight="1" spans="1:11">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G9" s="3">
         <v>2.25</v>
@@ -2630,19 +2635,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G10" s="6">
         <v>2.3</v>
@@ -2671,13 +2676,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11" s="6">
         <v>2.3</v>
@@ -2695,24 +2700,24 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1" spans="1:11">
+    <row r="12" ht="39" customHeight="1" spans="1:11">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G12" s="6">
         <v>2.6</v>
@@ -2730,24 +2735,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:11">
+    <row r="13" ht="31" customHeight="1" spans="1:11">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G13" s="6">
         <v>3.1</v>
@@ -2765,24 +2770,24 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" ht="22" customHeight="1" spans="1:11">
+    <row r="14" ht="69" customHeight="1" spans="1:11">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G14" s="6">
         <v>3.8</v>
@@ -2811,13 +2816,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G15" s="6">
         <v>4.8</v>
@@ -2840,19 +2845,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G16" s="6">
         <v>5.3</v>
@@ -2881,13 +2886,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" s="6">
         <v>5.5</v>
@@ -2905,6 +2910,7 @@
         <v>6.3</v>
       </c>
     </row>
+    <row r="21" ht="137" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
